--- a/outputs-r202/test-f__Ruminococcaceae.xlsx
+++ b/outputs-r202/test-f__Ruminococcaceae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
   <si>
     <t>Row</t>
   </si>
@@ -271,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -281,14 +281,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,1744 +380,1744 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.4705543479117231e-13</v>
+        <v>1.4476272080907094e-13</v>
       </c>
       <c r="C2">
-        <v>2.4373418995927336e-07</v>
+        <v>3.6075201284957764e-08</v>
       </c>
       <c r="D2">
-        <v>2.0223275080967965e-10</v>
+        <v>3.9188175318108442e-09</v>
       </c>
       <c r="E2">
-        <v>1.4705543479117188e-13</v>
+        <v>1.4476272080907132e-13</v>
       </c>
       <c r="F2">
-        <v>1.4705543479117188e-13</v>
+        <v>1.4476272080907132e-13</v>
       </c>
       <c r="G2">
-        <v>0.0001039711405844285</v>
+        <v>0.015989060776858952</v>
       </c>
       <c r="H2">
-        <v>1.4705543479117312e-13</v>
+        <v>1.4476272080907132e-13</v>
       </c>
       <c r="I2">
-        <v>3.620926811226045e-06</v>
+        <v>4.341608621504585e-05</v>
       </c>
       <c r="J2">
-        <v>1.6258088145005397e-11</v>
+        <v>3.4174032738443083e-09</v>
       </c>
       <c r="K2">
-        <v>1.4705543479117226e-13</v>
+        <v>1.4476272080907177e-13</v>
       </c>
       <c r="L2">
-        <v>1.4705543479117226e-13</v>
+        <v>1.4476272080907177e-13</v>
       </c>
       <c r="M2">
-        <v>1.0105494559439659e-08</v>
+        <v>9.7928149409976201e-11</v>
       </c>
       <c r="N2">
-        <v>3.4743646471062107e-07</v>
+        <v>1.4767976104030571e-07</v>
       </c>
       <c r="O2">
-        <v>1.4705543479117231e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="P2">
-        <v>1.4705543479117226e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="Q2">
-        <v>1.4705543479117226e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="R2">
-        <v>1.4705543479117226e-13</v>
+        <v>1.4476272080907177e-13</v>
       </c>
       <c r="S2">
-        <v>1.1965365863109998e-05</v>
+        <v>2.4995729328306439e-06</v>
       </c>
       <c r="T2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907139e-13</v>
       </c>
       <c r="U2">
-        <v>1.4705543479117312e-13</v>
+        <v>1.4476272080907139e-13</v>
       </c>
       <c r="V2">
-        <v>1.4705543479117312e-13</v>
+        <v>1.4476272080907139e-13</v>
       </c>
       <c r="W2">
-        <v>1.4705543479117312e-13</v>
+        <v>1.4476272080907139e-13</v>
       </c>
       <c r="X2">
-        <v>1.4705543479117312e-13</v>
+        <v>1.4476272080907139e-13</v>
       </c>
       <c r="Y2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907139e-13</v>
       </c>
       <c r="Z2">
-        <v>1.2486641028784818e-09</v>
+        <v>1.4476272080934344e-13</v>
       </c>
       <c r="AA2">
-        <v>1.4705543479117269e-13</v>
+        <v>1.4476272080907139e-13</v>
       </c>
       <c r="AB2">
-        <v>1.4705543479117269e-13</v>
+        <v>1.4476272080907139e-13</v>
       </c>
       <c r="AC2">
-        <v>1.4705543479117269e-13</v>
+        <v>1.4476272080907139e-13</v>
       </c>
       <c r="AD2">
-        <v>1.4705543479117269e-13</v>
+        <v>1.4476272080907139e-13</v>
       </c>
       <c r="AE2">
-        <v>1.4705543479117269e-13</v>
+        <v>1.4476272080907139e-13</v>
       </c>
       <c r="AF2">
-        <v>1.4705543479117269e-13</v>
+        <v>1.4476272080907139e-13</v>
       </c>
       <c r="AG2">
-        <v>1.4705543479117269e-13</v>
+        <v>1.4476272080907139e-13</v>
       </c>
       <c r="AH2">
-        <v>1.4705543479117269e-13</v>
+        <v>1.4476272080907139e-13</v>
       </c>
       <c r="AI2">
-        <v>1.4705543479117234e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="AJ2">
-        <v>1.4705543479117277e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="AK2">
-        <v>4.214464677066795e-06</v>
+        <v>1.3550060857687933e-09</v>
       </c>
       <c r="AL2">
-        <v>0.01734928407884706</v>
+        <v>0.011322445400040839</v>
       </c>
       <c r="AM2">
-        <v>0.98251658614079884</v>
+        <v>0.97263909031437623</v>
       </c>
       <c r="AN2">
-        <v>1.4705543479117274e-13</v>
+        <v>1.4476272080907177e-13</v>
       </c>
       <c r="AO2">
-        <v>2.4384719847610452e-07</v>
+        <v>2.2110678408453636e-06</v>
       </c>
       <c r="AP2">
-        <v>1.4705543479117297e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="AQ2">
-        <v>7.5470351288039904e-06</v>
+        <v>7.782196727410431e-07</v>
       </c>
       <c r="AR2">
-        <v>3.3203564856736706e-09</v>
+        <v>3.9914674727849832e-08</v>
       </c>
       <c r="AS2">
-        <v>1.4705543479117327e-13</v>
+        <v>1.4476272080907177e-13</v>
       </c>
       <c r="AT2">
-        <v>1.4705543479117274e-13</v>
+        <v>1.4476272080907177e-13</v>
       </c>
       <c r="AU2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907177e-13</v>
       </c>
       <c r="AV2">
-        <v>1.9578008640494725e-06</v>
+        <v>2.2884612152663516e-07</v>
       </c>
       <c r="AW2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907177e-13</v>
       </c>
       <c r="AX2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907177e-13</v>
       </c>
       <c r="AY2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907177e-13</v>
       </c>
       <c r="AZ2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907177e-13</v>
       </c>
       <c r="BA2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907177e-13</v>
       </c>
       <c r="BB2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907177e-13</v>
       </c>
       <c r="BC2">
-        <v>1.4705543479117315e-13</v>
+        <v>1.4476272080907177e-13</v>
       </c>
       <c r="BD2">
-        <v>3.1277717439062191e-09</v>
+        <v>3.7249332961015873e-08</v>
       </c>
       <c r="BE2">
-        <v>1.4705543479117315e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="BF2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="BG2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="BH2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="BI2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="BJ2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="BK2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="BL2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="BM2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="BN2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="BO2">
-        <v>1.4705543479117287e-13</v>
+        <v>1.4476272080907134e-13</v>
       </c>
       <c r="BP2">
-        <v>1.4705543479117302e-13</v>
+        <v>1.4476272080907144e-13</v>
       </c>
       <c r="BQ2">
-        <v>1.4705543479117302e-13</v>
+        <v>1.4476272080907144e-13</v>
       </c>
       <c r="BR2">
-        <v>1.4705543479117302e-13</v>
+        <v>1.4476272080907144e-13</v>
       </c>
       <c r="BS2">
-        <v>1.4705543479117302e-13</v>
+        <v>1.4476272080907144e-13</v>
       </c>
       <c r="BT2">
         <v>38</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.4480337632529109e-10</v>
+        <v>1.1687822058829273e-11</v>
       </c>
       <c r="C3">
-        <v>0.063548118123498906</v>
+        <v>0.0012213022226359688</v>
       </c>
       <c r="D3">
-        <v>0.074920419382755218</v>
+        <v>0.0071490637781431998</v>
       </c>
       <c r="E3">
-        <v>4.4480337632529145e-10</v>
+        <v>1.1687822058829273e-11</v>
       </c>
       <c r="F3">
-        <v>4.4480337632529109e-10</v>
+        <v>1.168782205882929e-11</v>
       </c>
       <c r="G3">
-        <v>1.2274507970490295e-05</v>
+        <v>1.3050184573726065e-06</v>
       </c>
       <c r="H3">
-        <v>4.4480337632529145e-10</v>
+        <v>1.1687822058829273e-11</v>
       </c>
       <c r="I3">
-        <v>0.0041154985248697696</v>
+        <v>9.3081061643848716e-05</v>
       </c>
       <c r="J3">
-        <v>4.5685561044687165e-06</v>
+        <v>6.0890617669186749e-07</v>
       </c>
       <c r="K3">
-        <v>4.4480337632529109e-10</v>
+        <v>1.1687822058829281e-11</v>
       </c>
       <c r="L3">
-        <v>4.4480337632529109e-10</v>
+        <v>1.1687822058829281e-11</v>
       </c>
       <c r="M3">
-        <v>7.3754196498658033e-08</v>
+        <v>1.7775909751605895e-08</v>
       </c>
       <c r="N3">
-        <v>1.9622050987922912e-05</v>
+        <v>7.9238349820128985e-07</v>
       </c>
       <c r="O3">
-        <v>4.4480337632529109e-10</v>
+        <v>1.1687822058829286e-11</v>
       </c>
       <c r="P3">
-        <v>4.4480337632529109e-10</v>
+        <v>1.1687822058829286e-11</v>
       </c>
       <c r="Q3">
-        <v>4.4480337632529109e-10</v>
+        <v>1.1687822058829286e-11</v>
       </c>
       <c r="R3">
-        <v>4.4480337632529145e-10</v>
+        <v>1.1687822058829286e-11</v>
       </c>
       <c r="S3">
-        <v>0.00028333382035322782</v>
+        <v>1.3602030925703084e-05</v>
       </c>
       <c r="T3">
-        <v>4.4480337632528923e-10</v>
+        <v>1.1687822058829281e-11</v>
       </c>
       <c r="U3">
-        <v>4.4480337632528923e-10</v>
+        <v>0.23564265806765541</v>
       </c>
       <c r="V3">
-        <v>4.4480337632528923e-10</v>
+        <v>1.1687822058829279e-11</v>
       </c>
       <c r="W3">
-        <v>4.4480337632528923e-10</v>
+        <v>1.1687822058829281e-11</v>
       </c>
       <c r="X3">
-        <v>4.4480337632528923e-10</v>
+        <v>1.1687822058829281e-11</v>
       </c>
       <c r="Y3">
-        <v>4.4480337632528923e-10</v>
+        <v>1.1687822058829281e-11</v>
       </c>
       <c r="Z3">
-        <v>4.4480337632528923e-10</v>
+        <v>1.1687822058829281e-11</v>
       </c>
       <c r="AA3">
-        <v>4.4480337632528923e-10</v>
+        <v>1.1687822058829281e-11</v>
       </c>
       <c r="AB3">
-        <v>4.4480337632528923e-10</v>
+        <v>1.1687822058829281e-11</v>
       </c>
       <c r="AC3">
-        <v>4.4480337632528923e-10</v>
+        <v>1.1687822058829281e-11</v>
       </c>
       <c r="AD3">
-        <v>4.4480337632528923e-10</v>
+        <v>1.1687822058829281e-11</v>
       </c>
       <c r="AE3">
-        <v>4.4480337632528923e-10</v>
+        <v>1.1687822058829281e-11</v>
       </c>
       <c r="AF3">
-        <v>4.4480337632528923e-10</v>
+        <v>1.1687822058829281e-11</v>
       </c>
       <c r="AG3">
-        <v>4.4480337632528923e-10</v>
+        <v>1.1687822058829281e-11</v>
       </c>
       <c r="AH3">
-        <v>4.4480337632528923e-10</v>
+        <v>1.1687822058829281e-11</v>
       </c>
       <c r="AI3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.1687822058829303e-11</v>
       </c>
       <c r="AJ3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.1687822058829303e-11</v>
       </c>
       <c r="AK3">
-        <v>0.00040119651556120753</v>
+        <v>3.3217856513174802e-05</v>
       </c>
       <c r="AL3">
-        <v>0.24206095744390901</v>
+        <v>0.29160260859543624</v>
       </c>
       <c r="AM3">
-        <v>0.22994767435424163</v>
+        <v>0.2922075168166875</v>
       </c>
       <c r="AN3">
-        <v>4.4480337632529001e-10</v>
+        <v>1.1687822058829276e-11</v>
       </c>
       <c r="AO3">
-        <v>1.5733226787384777e-08</v>
+        <v>3.2397715161562635e-10</v>
       </c>
       <c r="AP3">
-        <v>4.4480337632529001e-10</v>
+        <v>1.1687822058829276e-11</v>
       </c>
       <c r="AQ3">
-        <v>0.18127832456934195</v>
+        <v>0.14496206526493899</v>
       </c>
       <c r="AR3">
-        <v>4.0172282465280215e-09</v>
+        <v>2.5756537855948535e-10</v>
       </c>
       <c r="AS3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.1687822058829313e-11</v>
       </c>
       <c r="AT3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.1687822058829313e-11</v>
       </c>
       <c r="AU3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.1687822058829313e-11</v>
       </c>
       <c r="AV3">
-        <v>0.031044707377755377</v>
+        <v>0.0013505048175000069</v>
       </c>
       <c r="AW3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="AX3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="AY3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="AZ3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BA3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BB3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BC3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BD3">
-        <v>0.17236318724861621</v>
+        <v>0.025721654202882242</v>
       </c>
       <c r="BE3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BF3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BG3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BH3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BI3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BJ3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BK3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BL3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BM3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BN3">
-        <v>4.4480337632529218e-10</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BO3">
-        <v>4.4480337632529099e-10</v>
+        <v>1.1687822058829263e-11</v>
       </c>
       <c r="BP3">
-        <v>4.4480337632529373e-10</v>
+        <v>1.1687822058829263e-11</v>
       </c>
       <c r="BQ3">
-        <v>4.4480337632529373e-10</v>
+        <v>1.1687822058829263e-11</v>
       </c>
       <c r="BR3">
-        <v>4.4480337632529373e-10</v>
+        <v>1.1687822058829263e-11</v>
       </c>
       <c r="BS3">
-        <v>4.4480337632529099e-10</v>
+        <v>1.1687822058829263e-11</v>
       </c>
       <c r="BT3">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.5322680708236911e-14</v>
+        <v>3.9470433317412093e-14</v>
       </c>
       <c r="C4">
-        <v>1.9045939422730317e-07</v>
+        <v>1.4274424225636059e-07</v>
       </c>
       <c r="D4">
-        <v>7.228706927564022e-07</v>
+        <v>6.3867698153445265e-07</v>
       </c>
       <c r="E4">
-        <v>5.5322680708236911e-14</v>
+        <v>3.9470433317412093e-14</v>
       </c>
       <c r="F4">
-        <v>5.5322680708236937e-14</v>
+        <v>3.9470433317412175e-14</v>
       </c>
       <c r="G4">
-        <v>3.0682154687459248e-05</v>
+        <v>9.3070264285175994e-05</v>
       </c>
       <c r="H4">
-        <v>5.5322680708236924e-14</v>
+        <v>3.9470433317412093e-14</v>
       </c>
       <c r="I4">
-        <v>1.8978586211175783e-05</v>
+        <v>2.1539183634816359e-05</v>
       </c>
       <c r="J4">
-        <v>3.2095261065827959e-10</v>
+        <v>3.5481439417274119e-10</v>
       </c>
       <c r="K4">
-        <v>5.5322680708236754e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="L4">
-        <v>5.532268070823664e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="M4">
-        <v>1.07428177593329e-06</v>
+        <v>1.703017110884364e-07</v>
       </c>
       <c r="N4">
-        <v>6.0781100076876669e-07</v>
+        <v>8.2126042612591737e-07</v>
       </c>
       <c r="O4">
-        <v>5.532268070823664e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="P4">
-        <v>5.5322680708236627e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="Q4">
-        <v>5.5322680708236627e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="R4">
-        <v>5.5322680708236659e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="S4">
-        <v>2.6686779334916979e-05</v>
+        <v>7.2220340624484547e-05</v>
       </c>
       <c r="T4">
-        <v>5.5322680708236968e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="U4">
-        <v>5.5322680708236968e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="V4">
-        <v>5.5322680708236968e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="W4">
-        <v>5.5322680708236968e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="X4">
-        <v>5.5322680708236968e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="Y4">
-        <v>5.5322680708236924e-14</v>
+        <v>3.9470433317412333e-14</v>
       </c>
       <c r="Z4">
-        <v>0.00012041867516233217</v>
+        <v>0.00027129192829372488</v>
       </c>
       <c r="AA4">
-        <v>5.5322680708237044e-14</v>
+        <v>3.9470433317412333e-14</v>
       </c>
       <c r="AB4">
-        <v>5.5322680708237044e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="AC4">
-        <v>5.5322680708237044e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="AD4">
-        <v>5.5322680708237044e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="AE4">
-        <v>5.5322680708237044e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="AF4">
-        <v>5.5322680708237044e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="AG4">
-        <v>5.5322680708237044e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="AH4">
-        <v>5.5322680708237044e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="AI4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="AJ4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="AK4">
-        <v>6.7731575535062063e-09</v>
+        <v>5.9781666403608834e-10</v>
       </c>
       <c r="AL4">
-        <v>0.013371020030322039</v>
+        <v>0.0095184863296663268</v>
       </c>
       <c r="AM4">
-        <v>0.97410052151930004</v>
+        <v>0.97498502607344006</v>
       </c>
       <c r="AN4">
-        <v>5.5322680708236874e-14</v>
+        <v>3.9470433317412422e-14</v>
       </c>
       <c r="AO4">
-        <v>3.0205117734764161e-09</v>
+        <v>7.5883044356923894e-09</v>
       </c>
       <c r="AP4">
-        <v>5.5322680708236874e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="AQ4">
-        <v>1.7688394706606435e-06</v>
+        <v>8.890829945461476e-07</v>
       </c>
       <c r="AR4">
-        <v>2.279131418436229e-09</v>
+        <v>1.4691073952179989e-09</v>
       </c>
       <c r="AS4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412422e-14</v>
       </c>
       <c r="AT4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412422e-14</v>
       </c>
       <c r="AU4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412523e-14</v>
       </c>
       <c r="AV4">
-        <v>0.012327298943811861</v>
+        <v>0.01503567181390892</v>
       </c>
       <c r="AW4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412523e-14</v>
       </c>
       <c r="AX4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412422e-14</v>
       </c>
       <c r="AY4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412422e-14</v>
       </c>
       <c r="AZ4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412422e-14</v>
       </c>
       <c r="BA4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412422e-14</v>
       </c>
       <c r="BB4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412422e-14</v>
       </c>
       <c r="BC4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412422e-14</v>
       </c>
       <c r="BD4">
-        <v>1.6652151191373033e-08</v>
+        <v>2.1987657617515657e-08</v>
       </c>
       <c r="BE4">
-        <v>5.5322680708236981e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="BF4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="BG4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="BH4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="BI4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="BJ4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="BK4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="BL4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="BM4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="BN4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="BO4">
-        <v>5.5322680708236886e-14</v>
+        <v>3.9470433317412321e-14</v>
       </c>
       <c r="BP4">
-        <v>5.532268070823647e-14</v>
+        <v>3.9470433317411854e-14</v>
       </c>
       <c r="BQ4">
-        <v>5.5322680708236577e-14</v>
+        <v>3.9470433317411854e-14</v>
       </c>
       <c r="BR4">
-        <v>5.5322680708236577e-14</v>
+        <v>3.9470433317411854e-14</v>
       </c>
       <c r="BS4">
-        <v>5.532268070823647e-14</v>
+        <v>3.9470433317411854e-14</v>
       </c>
       <c r="BT4">
         <v>38</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="C5">
-        <v>1.9289351422177924e-09</v>
+        <v>1.2897377846413226e-09</v>
       </c>
       <c r="D5">
-        <v>8.1437591266603232e-14</v>
+        <v>5.7648831223106148e-14</v>
       </c>
       <c r="E5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="F5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="G5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="H5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="I5">
-        <v>2.3331047689516521e-08</v>
+        <v>2.2869054157980795e-08</v>
       </c>
       <c r="J5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="K5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="L5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="M5">
-        <v>4.3942901943429491e-07</v>
+        <v>9.6755655444653177e-08</v>
       </c>
       <c r="N5">
-        <v>4.1880819897877288e-09</v>
+        <v>4.4483635087780469e-09</v>
       </c>
       <c r="O5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="P5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="Q5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="R5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="S5">
-        <v>7.0860146000310692e-12</v>
+        <v>7.3643830625110077e-12</v>
       </c>
       <c r="T5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="U5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="V5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="W5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="X5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="Y5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="Z5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AA5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AB5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AC5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AD5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AE5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AF5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AG5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AH5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AI5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AJ5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AK5">
-        <v>0.84166303597731817</v>
+        <v>0.840741983991529</v>
       </c>
       <c r="AL5">
-        <v>0.00070635899417327455</v>
+        <v>0.0009305842150462211</v>
       </c>
       <c r="AM5">
-        <v>0.15762940213353013</v>
+        <v>0.15832686463598797</v>
       </c>
       <c r="AN5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AO5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AP5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AQ5">
-        <v>5.2149091018724474e-07</v>
+        <v>3.4536665114878457e-07</v>
       </c>
       <c r="AR5">
-        <v>1.5151109470729653e-10</v>
+        <v>2.2734859261249683e-10</v>
       </c>
       <c r="AS5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AT5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AU5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AV5">
-        <v>2.1236500356405509e-07</v>
+        <v>9.6191493240541852e-08</v>
       </c>
       <c r="AW5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AX5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AY5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="AZ5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BA5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BB5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BC5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BD5">
-        <v>2.0361187195977057e-12</v>
+        <v>4.452999818707092e-13</v>
       </c>
       <c r="BE5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BF5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BG5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BH5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BI5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BJ5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BK5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BL5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BM5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BN5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BO5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BP5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BQ5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BR5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BS5">
-        <v>2.2202392781795174e-14</v>
+        <v>2.2201556154278272e-14</v>
       </c>
       <c r="BT5">
         <v>36</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.0812275537934775e-14</v>
+        <v>5.4663211207802838e-14</v>
       </c>
       <c r="C6">
-        <v>5.8109683159597172e-07</v>
+        <v>1.7163489889323104e-07</v>
       </c>
       <c r="D6">
-        <v>7.794562209014931e-09</v>
+        <v>5.4236263232759726e-07</v>
       </c>
       <c r="E6">
-        <v>3.0812275537934775e-14</v>
+        <v>5.4663211207802932e-14</v>
       </c>
       <c r="F6">
-        <v>3.0812275537934769e-14</v>
+        <v>5.4663211207802932e-14</v>
       </c>
       <c r="G6">
-        <v>1.4868560079471642e-06</v>
+        <v>0.00015420241261424376</v>
       </c>
       <c r="H6">
-        <v>3.0812275537934782e-14</v>
+        <v>5.4663211207802743e-14</v>
       </c>
       <c r="I6">
-        <v>2.1744314685825542e-06</v>
+        <v>3.6551473579489219e-05</v>
       </c>
       <c r="J6">
-        <v>1.4188561664040242e-10</v>
+        <v>2.7410604773249991e-10</v>
       </c>
       <c r="K6">
-        <v>3.0812275537934794e-14</v>
+        <v>5.4663211207802945e-14</v>
       </c>
       <c r="L6">
-        <v>3.0812275537934794e-14</v>
+        <v>5.4663211207802945e-14</v>
       </c>
       <c r="M6">
-        <v>3.5010365974144116e-07</v>
+        <v>1.0625974675184099e-07</v>
       </c>
       <c r="N6">
-        <v>8.9124855904351166e-07</v>
+        <v>1.3674869723444404e-06</v>
       </c>
       <c r="O6">
-        <v>3.0812275537934782e-14</v>
+        <v>5.4663211207803065e-14</v>
       </c>
       <c r="P6">
-        <v>3.0812275537934782e-14</v>
+        <v>5.4663211207803065e-14</v>
       </c>
       <c r="Q6">
-        <v>3.0812275537934782e-14</v>
+        <v>5.4663211207803065e-14</v>
       </c>
       <c r="R6">
-        <v>3.0812275537934782e-14</v>
+        <v>5.4663211207803065e-14</v>
       </c>
       <c r="S6">
-        <v>5.6419086073727759e-05</v>
+        <v>9.8915170352755906e-05</v>
       </c>
       <c r="T6">
-        <v>3.081227553793487e-14</v>
+        <v>5.4663211207802838e-14</v>
       </c>
       <c r="U6">
-        <v>3.081227553793487e-14</v>
+        <v>5.4663211207802838e-14</v>
       </c>
       <c r="V6">
-        <v>3.081227553793487e-14</v>
+        <v>5.4663211207802838e-14</v>
       </c>
       <c r="W6">
-        <v>3.081227553793487e-14</v>
+        <v>5.4663211207802838e-14</v>
       </c>
       <c r="X6">
-        <v>3.081227553793487e-14</v>
+        <v>5.4663211207802838e-14</v>
       </c>
       <c r="Y6">
-        <v>3.081227553793487e-14</v>
+        <v>5.4663211207802838e-14</v>
       </c>
       <c r="Z6">
-        <v>4.8588135502516518e-05</v>
+        <v>0.00012533206468836748</v>
       </c>
       <c r="AA6">
-        <v>3.081227553793487e-14</v>
+        <v>5.4663211207802838e-14</v>
       </c>
       <c r="AB6">
-        <v>3.081227553793487e-14</v>
+        <v>5.4663211207802838e-14</v>
       </c>
       <c r="AC6">
-        <v>3.081227553793487e-14</v>
+        <v>5.4663211207802838e-14</v>
       </c>
       <c r="AD6">
-        <v>3.081227553793487e-14</v>
+        <v>5.4663211207802838e-14</v>
       </c>
       <c r="AE6">
-        <v>3.081227553793487e-14</v>
+        <v>5.4663211207802838e-14</v>
       </c>
       <c r="AF6">
-        <v>3.081227553793487e-14</v>
+        <v>5.4663211207802838e-14</v>
       </c>
       <c r="AG6">
-        <v>3.081227553793487e-14</v>
+        <v>5.4663211207802838e-14</v>
       </c>
       <c r="AH6">
-        <v>3.081227553793487e-14</v>
+        <v>5.4663211207802838e-14</v>
       </c>
       <c r="AI6">
-        <v>3.0812275537934826e-14</v>
+        <v>5.4663211207802958e-14</v>
       </c>
       <c r="AJ6">
-        <v>3.0812275537934826e-14</v>
+        <v>5.466321120780304e-14</v>
       </c>
       <c r="AK6">
-        <v>1.4870962067335735e-07</v>
+        <v>1.8234515870756831e-09</v>
       </c>
       <c r="AL6">
-        <v>0.0098622096201305635</v>
+        <v>0.014927866378887787</v>
       </c>
       <c r="AM6">
-        <v>0.9357867847024508</v>
+        <v>0.9757095063176433</v>
       </c>
       <c r="AN6">
-        <v>3.0812275537934876e-14</v>
+        <v>5.4663211207803097e-14</v>
       </c>
       <c r="AO6">
-        <v>2.787692700943588e-09</v>
+        <v>3.9436462698363546e-09</v>
       </c>
       <c r="AP6">
-        <v>3.0812275537934914e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="AQ6">
-        <v>7.4267422963744306e-06</v>
+        <v>8.845098974477275e-07</v>
       </c>
       <c r="AR6">
-        <v>2.1927343070710802e-10</v>
+        <v>2.8371572603493638e-09</v>
       </c>
       <c r="AS6">
-        <v>3.0812275537934914e-14</v>
+        <v>5.4663211207803097e-14</v>
       </c>
       <c r="AT6">
-        <v>3.0812275537934914e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="AU6">
-        <v>3.0812275537934914e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="AV6">
-        <v>0.054232926598404875</v>
+        <v>0.0089445231326137457</v>
       </c>
       <c r="AW6">
-        <v>3.0812275537934914e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="AX6">
-        <v>3.0812275537934914e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="AY6">
-        <v>3.0812275537934914e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="AZ6">
-        <v>3.0812275537934914e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="BA6">
-        <v>3.0812275537934914e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="BB6">
-        <v>3.0812275537934914e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="BC6">
-        <v>3.0812275537934914e-14</v>
+        <v>5.4663211207803097e-14</v>
       </c>
       <c r="BD6">
-        <v>1.7239449939352394e-09</v>
+        <v>2.1914215219623887e-08</v>
       </c>
       <c r="BE6">
-        <v>3.081227553793482e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="BF6">
-        <v>3.081227553793482e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="BG6">
-        <v>3.081227553793482e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="BH6">
-        <v>3.081227553793482e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="BI6">
-        <v>3.081227553793482e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="BJ6">
-        <v>3.081227553793482e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="BK6">
-        <v>3.081227553793482e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="BL6">
-        <v>3.081227553793482e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="BM6">
-        <v>3.081227553793482e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="BN6">
-        <v>3.081227553793482e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="BO6">
-        <v>3.081227553793482e-14</v>
+        <v>5.4663211207802983e-14</v>
       </c>
       <c r="BP6">
-        <v>3.0812275537934491e-14</v>
+        <v>5.4663211207802623e-14</v>
       </c>
       <c r="BQ6">
-        <v>3.0812275537934491e-14</v>
+        <v>5.4663211207802623e-14</v>
       </c>
       <c r="BR6">
-        <v>3.0812275537934491e-14</v>
+        <v>5.4663211207802623e-14</v>
       </c>
       <c r="BS6">
-        <v>3.0812275537934491e-14</v>
+        <v>5.4663211207802623e-14</v>
       </c>
       <c r="BT6">
         <v>38</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920574953e-14</v>
       </c>
       <c r="C7">
-        <v>3.9552325425299358e-07</v>
+        <v>1.6499293069066088e-07</v>
       </c>
       <c r="D7">
-        <v>3.8383095207490667e-10</v>
+        <v>5.0993798458585501e-07</v>
       </c>
       <c r="E7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920574965e-14</v>
       </c>
       <c r="F7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920574953e-14</v>
       </c>
       <c r="G7">
-        <v>3.1568647552631029e-08</v>
+        <v>7.4831352133605399e-05</v>
       </c>
       <c r="H7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575054e-14</v>
       </c>
       <c r="I7">
-        <v>1.5749244074155834e-07</v>
+        <v>1.674191485330086e-05</v>
       </c>
       <c r="J7">
-        <v>3.7142380306233736e-10</v>
+        <v>3.1688382225330017e-10</v>
       </c>
       <c r="K7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575066e-14</v>
       </c>
       <c r="L7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="M7">
-        <v>9.1056330538058301e-08</v>
+        <v>2.6573945658442651e-07</v>
       </c>
       <c r="N7">
-        <v>5.9897780997379214e-07</v>
+        <v>6.3453823416304793e-07</v>
       </c>
       <c r="O7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="P7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575066e-14</v>
       </c>
       <c r="Q7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575066e-14</v>
       </c>
       <c r="R7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="S7">
-        <v>7.3965866370598456e-06</v>
+        <v>6.7885021520133418e-05</v>
       </c>
       <c r="T7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575155e-14</v>
       </c>
       <c r="U7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575155e-14</v>
       </c>
       <c r="V7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575155e-14</v>
       </c>
       <c r="W7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575155e-14</v>
       </c>
       <c r="X7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575155e-14</v>
       </c>
       <c r="Y7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575155e-14</v>
       </c>
       <c r="Z7">
-        <v>5.1283182413829835e-06</v>
+        <v>0.00034338112630886378</v>
       </c>
       <c r="AA7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="AB7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="AC7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="AD7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="AE7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="AF7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="AG7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="AH7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="AI7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575054e-14</v>
       </c>
       <c r="AJ7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575155e-14</v>
       </c>
       <c r="AK7">
-        <v>1.8696739459171002e-07</v>
+        <v>4.717903025497169e-10</v>
       </c>
       <c r="AL7">
-        <v>0.0028036060606143093</v>
+        <v>0.0075689696729628652</v>
       </c>
       <c r="AM7">
-        <v>0.65540211243375923</v>
+        <v>0.97133699876688817</v>
       </c>
       <c r="AN7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575155e-14</v>
       </c>
       <c r="AO7">
-        <v>1.1455865565766844e-09</v>
+        <v>1.8245660775888874e-08</v>
       </c>
       <c r="AP7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575167e-14</v>
       </c>
       <c r="AQ7">
-        <v>1.2917736250288028e-05</v>
+        <v>1.1226077134921678e-06</v>
       </c>
       <c r="AR7">
-        <v>1.6853307176273886e-11</v>
+        <v>1.0781893938973855e-09</v>
       </c>
       <c r="AS7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575167e-14</v>
       </c>
       <c r="AT7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="AU7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="AV7">
-        <v>0.34176737512026928</v>
+        <v>0.020588453076844763</v>
       </c>
       <c r="AW7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="AX7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="AY7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="AZ7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="BA7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="BB7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="BC7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="BD7">
-        <v>2.3947941996948741e-10</v>
+        <v>2.1137690187798098e-08</v>
       </c>
       <c r="BE7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="BF7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="BG7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="BH7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="BI7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="BJ7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="BK7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="BL7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="BM7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="BN7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="BO7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575073e-14</v>
       </c>
       <c r="BP7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575211e-14</v>
       </c>
       <c r="BQ7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575211e-14</v>
       </c>
       <c r="BR7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575211e-14</v>
       </c>
       <c r="BS7">
-        <v>2.2204157963831392e-14</v>
+        <v>3.6878372920575211e-14</v>
       </c>
       <c r="BT7">
         <v>38</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.01417498463046764</v>
+        <v>0.014207197699190712</v>
       </c>
       <c r="C8">
-        <v>0.014174990634824802</v>
+        <v>0.014207200697860994</v>
       </c>
       <c r="D8">
-        <v>0.014175530810759601</v>
+        <v>0.01420764943813734</v>
       </c>
       <c r="E8">
-        <v>0.014174984630467638</v>
+        <v>0.014207197699190712</v>
       </c>
       <c r="F8">
-        <v>0.0141749846304677</v>
+        <v>0.014207197699190712</v>
       </c>
       <c r="G8">
-        <v>0.014175005745468488</v>
+        <v>0.014207215948797021</v>
       </c>
       <c r="H8">
-        <v>0.01417498463046765</v>
+        <v>0.01420719769919063</v>
       </c>
       <c r="I8">
-        <v>0.014175006861011689</v>
+        <v>0.014207211270741602</v>
       </c>
       <c r="J8">
-        <v>0.014175028829746262</v>
+        <v>0.014207310405841536</v>
       </c>
       <c r="K8">
-        <v>0.014174984630467685</v>
+        <v>0.014207197699190693</v>
       </c>
       <c r="L8">
-        <v>0.014174984630467685</v>
+        <v>0.014207197699190693</v>
       </c>
       <c r="M8">
-        <v>0.01417498494255358</v>
+        <v>0.014207197752106191</v>
       </c>
       <c r="N8">
-        <v>0.01417498644813301</v>
+        <v>0.014207199250576558</v>
       </c>
       <c r="O8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190622</v>
       </c>
       <c r="P8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190622</v>
       </c>
       <c r="Q8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190622</v>
       </c>
       <c r="R8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190651</v>
       </c>
       <c r="S8">
-        <v>0.014174987776097249</v>
+        <v>0.014207198694686606</v>
       </c>
       <c r="T8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190691</v>
       </c>
       <c r="U8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190691</v>
       </c>
       <c r="V8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190691</v>
       </c>
       <c r="W8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190691</v>
       </c>
       <c r="X8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190691</v>
       </c>
       <c r="Y8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190691</v>
       </c>
       <c r="Z8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190691</v>
       </c>
       <c r="AA8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190691</v>
       </c>
       <c r="AB8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190691</v>
       </c>
       <c r="AC8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190691</v>
       </c>
       <c r="AD8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190691</v>
       </c>
       <c r="AE8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190691</v>
       </c>
       <c r="AF8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190691</v>
       </c>
       <c r="AG8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190691</v>
       </c>
       <c r="AH8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190691</v>
       </c>
       <c r="AI8">
-        <v>0.0141749846304677</v>
+        <v>0.014207197699190722</v>
       </c>
       <c r="AJ8">
-        <v>0.014174984630467723</v>
+        <v>0.014207197699190722</v>
       </c>
       <c r="AK8">
-        <v>0.014175286788294059</v>
+        <v>0.014207431196198718</v>
       </c>
       <c r="AL8">
-        <v>0.019466229824897041</v>
+        <v>0.018776941030746369</v>
       </c>
       <c r="AM8">
-        <v>0.016623078038677862</v>
+        <v>0.015124698577255367</v>
       </c>
       <c r="AN8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190703</v>
       </c>
       <c r="AO8">
-        <v>0.014174985228634923</v>
+        <v>0.014207198225130578</v>
       </c>
       <c r="AP8">
-        <v>0.014174984630467671</v>
+        <v>0.014207197699190727</v>
       </c>
       <c r="AQ8">
-        <v>0.01418554489453802</v>
+        <v>0.014215016568175641</v>
       </c>
       <c r="AR8">
-        <v>0.014174984635414511</v>
+        <v>0.014207197703582433</v>
       </c>
       <c r="AS8">
-        <v>0.014174984630467742</v>
+        <v>0.014207197699190707</v>
       </c>
       <c r="AT8">
-        <v>0.014174984630467668</v>
+        <v>0.014207197699190707</v>
       </c>
       <c r="AU8">
-        <v>0.014174984630467718</v>
+        <v>0.014207197699190717</v>
       </c>
       <c r="AV8">
-        <v>0.014174987780786338</v>
+        <v>0.01420719867099644</v>
       </c>
       <c r="AW8">
-        <v>0.014174984630467713</v>
+        <v>0.014207197699190712</v>
       </c>
       <c r="AX8">
-        <v>0.014174984630467697</v>
+        <v>0.014207197699190707</v>
       </c>
       <c r="AY8">
-        <v>0.014174984630467697</v>
+        <v>0.014207197699190707</v>
       </c>
       <c r="AZ8">
-        <v>0.014174984630467697</v>
+        <v>0.014207197699190707</v>
       </c>
       <c r="BA8">
-        <v>0.014174984630467697</v>
+        <v>0.014207197699190707</v>
       </c>
       <c r="BB8">
-        <v>0.014174984630467697</v>
+        <v>0.014207197699190707</v>
       </c>
       <c r="BC8">
-        <v>0.014174984630467697</v>
+        <v>0.014207197699190707</v>
       </c>
       <c r="BD8">
-        <v>0.014175210714908106</v>
+        <v>0.014207458812868537</v>
       </c>
       <c r="BE8">
-        <v>0.014174984630467668</v>
+        <v>0.014207197699190717</v>
       </c>
       <c r="BF8">
-        <v>0.014174984630467668</v>
+        <v>0.014207197699190717</v>
       </c>
       <c r="BG8">
-        <v>0.014174984630467668</v>
+        <v>0.014207197699190717</v>
       </c>
       <c r="BH8">
-        <v>0.014174984630467668</v>
+        <v>0.014207197699190717</v>
       </c>
       <c r="BI8">
-        <v>0.014174984630467668</v>
+        <v>0.014207197699190717</v>
       </c>
       <c r="BJ8">
-        <v>0.014174984630467668</v>
+        <v>0.014207197699190717</v>
       </c>
       <c r="BK8">
-        <v>0.014174984630467668</v>
+        <v>0.014207197699190717</v>
       </c>
       <c r="BL8">
-        <v>0.014174984630467668</v>
+        <v>0.014207197699190717</v>
       </c>
       <c r="BM8">
-        <v>0.014174984630467668</v>
+        <v>0.014207197699190717</v>
       </c>
       <c r="BN8">
-        <v>0.014174984630467668</v>
+        <v>0.014207197699190717</v>
       </c>
       <c r="BO8">
-        <v>0.014174984630467614</v>
+        <v>0.014207197699190726</v>
       </c>
       <c r="BP8">
-        <v>0.014174984630467614</v>
+        <v>0.014207197699190726</v>
       </c>
       <c r="BQ8">
-        <v>0.014174984630467614</v>
+        <v>0.014207197699190747</v>
       </c>
       <c r="BR8">
-        <v>0.014174984630467614</v>
+        <v>0.014207197699190747</v>
       </c>
       <c r="BS8">
-        <v>0.014174984630467614</v>
+        <v>0.014207197699190747</v>
       </c>
       <c r="BT8">
         <v>37</v>
